--- a/app/acts/ks14base/docx_template/KS2 Template.xlsx
+++ b/app/acts/ks14base/docx_template/KS2 Template.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\ActHiddeen\app\acts\ks14base\docx_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E96DFF-F294-4857-99A4-50AE03E08EB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КС-2 ВО" sheetId="3" r:id="rId1"/>
     <sheet name="SMW_Служебная" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11812,10 +11826,6 @@
   </si>
   <si>
     <t>{{ contractor_OKPO }}</t>
-  </si>
-  <si>
-    <t>Капитальный ремонт {{ system_genitive }} в многоквартирном доме по адресу: 
-{{ address }}</t>
   </si>
   <si>
     <t>{{ numb }}</t>
@@ -11923,11 +11933,15 @@
   <si>
     <t>по {{ supervisor_decree_dative }}</t>
   </si>
+  <si>
+    <t>Капитальный ремонт {{ system_genitive }}  в многоквартирном доме по адресу: 
+{{ address }}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="##\ ###"/>
     <numFmt numFmtId="165" formatCode="###\ ###"/>
@@ -12307,7 +12321,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -12315,12 +12381,16 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12331,48 +12401,48 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12395,79 +12465,23 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -12480,6 +12494,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -12528,7 +12545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12561,9 +12578,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12596,6 +12630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -12771,14 +12822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12809,664 +12860,664 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="56" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
     </row>
     <row r="3" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="56" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
     </row>
     <row r="4" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
     </row>
     <row r="5" spans="1:24" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="79" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
     </row>
     <row r="7" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
     </row>
     <row r="8" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="48" t="s">
         <v>3916</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50" t="s">
         <v>3915</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="53" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="55" t="s">
         <v>3918</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
     </row>
     <row r="9" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="48" t="s">
         <v>3917</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50" t="s">
         <v>3930</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="53" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="55" t="s">
         <v>3931</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
     </row>
     <row r="10" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78" t="s">
-        <v>3932</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="40" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="51"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
     </row>
     <row r="11" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78" t="s">
-        <v>3932</v>
-      </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="40" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="51"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
     </row>
     <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
     </row>
     <row r="13" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="52" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="53" t="s">
-        <v>3933</v>
-      </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="55" t="s">
+        <v>3932</v>
+      </c>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
     </row>
     <row r="14" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="52" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="57" t="s">
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="71" t="s">
+        <v>3933</v>
+      </c>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73" t="s">
         <v>3934</v>
       </c>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="59" t="s">
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="74" t="s">
         <v>3935</v>
       </c>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="60" t="s">
+      <c r="X14" s="75"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
         <v>3936</v>
       </c>
-      <c r="X14" s="61"/>
-    </row>
-    <row r="15" spans="1:24" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
         <v>3937</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>3938</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
     </row>
     <row r="17" spans="1:24" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
     </row>
     <row r="18" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
     </row>
     <row r="19" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="44" t="s">
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="44" t="s">
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="44" t="s">
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="40" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="63" t="s">
+        <v>3938</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="63" t="s">
         <v>3939</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="40" t="s">
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="63" t="s">
         <v>3940</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="40" t="s">
-        <v>3941</v>
-      </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="40" t="s">
-        <v>3940</v>
-      </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="63" t="s">
+        <v>3939</v>
+      </c>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="38" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -13491,141 +13542,141 @@
       <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="73" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="73" t="s">
+      <c r="H24" s="54"/>
+      <c r="I24" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="73" t="s">
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="73" t="s">
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
     </row>
     <row r="25" spans="1:24" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="73" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J25" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="73" t="s">
+      <c r="K25" s="54"/>
+      <c r="L25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="73" t="s">
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="73" t="s">
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="73" t="s">
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
     </row>
     <row r="26" spans="1:24" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="73" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
     </row>
     <row r="27" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="V27" s="41"/>
+      <c r="J27" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="54"/>
       <c r="W27" s="3" t="s">
         <v>41</v>
       </c>
@@ -13681,127 +13732,127 @@
       <c r="W29" s="27"/>
     </row>
     <row r="30" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66">
-        <v>0</v>
-      </c>
-      <c r="H30" s="67"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="45"/>
       <c r="I30" s="32" t="str">
         <f>I32</f>
         <v>{{ summa }}</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="63"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="65"/>
       <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="42" t="s">
         <v>3925</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="33">
         <v>1</v>
       </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="72"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="47"/>
       <c r="W31" s="30"/>
     </row>
     <row r="32" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="42" t="s">
         <v>3926</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66">
-        <v>0</v>
-      </c>
-      <c r="H32" s="67"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44">
+        <v>0</v>
+      </c>
+      <c r="H32" s="45"/>
       <c r="I32" s="34" t="s">
         <v>3927</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="72"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="47"/>
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
       <c r="X33"/>
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="21" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -13830,14 +13881,14 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:24" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -13917,7 +13968,7 @@
     <row r="41" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="14" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -13929,14 +13980,14 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:24" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="6"/>
@@ -14000,7 +14051,7 @@
     <row r="46" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="14" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -14016,7 +14067,7 @@
     <row r="47" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="39" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="24"/>
@@ -14028,14 +14079,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="24" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="P47" s="24"/>
     </row>
     <row r="48" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="6"/>
@@ -14067,7 +14118,7 @@
     <row r="50" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="6"/>
@@ -14098,7 +14149,7 @@
     <row r="52" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="6"/>
@@ -14114,7 +14165,7 @@
     <row r="53" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="20" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="6"/>
@@ -14130,7 +14181,7 @@
     <row r="54" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="20" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="6"/>
@@ -14142,7 +14193,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="P54" s="11"/>
     </row>
@@ -14189,6 +14240,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="Q12:X12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="Q17:X17"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:X7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M2:X2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="A33:W33"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:K26"/>
+    <mergeCell ref="L25:N27"/>
+    <mergeCell ref="O25:Q27"/>
+    <mergeCell ref="R25:T26"/>
+    <mergeCell ref="U25:W26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:F27"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="Q8:X8"/>
+    <mergeCell ref="E9:L9"/>
     <mergeCell ref="M3:X3"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="G31:H31"/>
@@ -14213,86 +14344,6 @@
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="Q6:X6"/>
     <mergeCell ref="E7:L7"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:F27"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="Q8:X8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M2:X2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="A33:W33"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="L25:N27"/>
-    <mergeCell ref="O25:Q27"/>
-    <mergeCell ref="R25:T26"/>
-    <mergeCell ref="U25:W26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:X7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="Q11:X11"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="Q12:X12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:X13"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="Q17:X17"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
   </mergeCells>
   <pageMargins left="0.78740157479999995" right="0.39370078739999997" top="0.39370078739999997" bottom="0.39370078739999997" header="7.8740157480000003E-2" footer="7.8740157480000003E-2"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="150" orientation="landscape" r:id="rId1"/>
@@ -14304,7 +14355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>

--- a/app/acts/ks14base/docx_template/KS2 Template.xlsx
+++ b/app/acts/ks14base/docx_template/KS2 Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\ActHiddeen\app\acts\ks14base\docx_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E96DFF-F294-4857-99A4-50AE03E08EB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA78E0-7987-46B3-ABC8-856C23B1068D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="КС-2 ВО" sheetId="3" r:id="rId1"/>
     <sheet name="SMW_Служебная" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11819,10 +11819,6 @@
   </si>
   <si>
     <t>Строительный контроль:Некоммерческая организация</t>
-  </si>
-  <si>
-    <t>Общество с ограниченной ответственностью  "{{ contractor }}" 
-{{ contractor_address }}</t>
   </si>
   <si>
     <t>{{ contractor_OKPO }}</t>
@@ -11934,8 +11930,10 @@
     <t>по {{ supervisor_decree_dative }}</t>
   </si>
   <si>
-    <t>Капитальный ремонт {{ system_genitive }}  в многоквартирном доме по адресу: 
-{{ address }}</t>
+    <t>Общество с ограниченной ответственностью  "{{ contractor }}" {{ contractor_address }}</t>
+  </si>
+  <si>
+    <t>Капитальный ремонт {{ system_genitive }}  в многоквартирном доме по адресу: {{ address }}</t>
   </si>
 </sst>
 </file>
@@ -11948,7 +11946,7 @@
     <numFmt numFmtId="166" formatCode="###\ ###.00"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11983,13 +11981,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -12199,7 +12190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -12256,7 +12247,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12321,59 +12312,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -12381,16 +12324,12 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12401,48 +12340,48 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12465,24 +12404,80 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -12828,8 +12823,8 @@
   </sheetPr>
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12860,664 +12855,664 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
     </row>
     <row r="2" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
     </row>
     <row r="3" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" spans="1:24" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="58" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="60" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="51" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-    </row>
-    <row r="8" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+    </row>
+    <row r="8" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
         <v>3916</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>3915</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="51" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="55" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="54" t="s">
         <v>3918</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
     </row>
     <row r="9" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="77" t="s">
         <v>3917</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="57" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="54" t="s">
         <v>3930</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="55" t="s">
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+    </row>
+    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="57" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+    </row>
+    <row r="11" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="57" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="54" t="s">
         <v>3931</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-    </row>
-    <row r="10" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="40" t="s">
-        <v>3954</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-    </row>
-    <row r="11" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="40" t="s">
-        <v>3954</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="55" t="s">
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="58" t="s">
         <v>3932</v>
       </c>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="71" t="s">
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="60" t="s">
         <v>3933</v>
       </c>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="73" t="s">
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="61" t="s">
         <v>3934</v>
       </c>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="74" t="s">
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>3935</v>
       </c>
-      <c r="X14" s="75"/>
-    </row>
-    <row r="15" spans="1:24" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>3936</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+    </row>
+    <row r="17" spans="1:24" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+    </row>
+    <row r="18" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+    </row>
+    <row r="19" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+    </row>
+    <row r="21" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="41" t="s">
         <v>3937</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-    </row>
-    <row r="17" spans="1:24" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-    </row>
-    <row r="18" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-    </row>
-    <row r="19" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-    </row>
-    <row r="21" spans="1:24" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="63" t="s">
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41" t="s">
         <v>3938</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="63" t="s">
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="41" t="s">
         <v>3939</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="63" t="s">
-        <v>3940</v>
-      </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="63" t="s">
-        <v>3939</v>
-      </c>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="41" t="s">
+        <v>3938</v>
+      </c>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="38" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -13542,141 +13537,141 @@
       <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="53" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="53" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="53" t="s">
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="53" t="s">
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="1:24" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="53" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="53" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="53" t="s">
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="53" t="s">
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="53" t="s">
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
     </row>
     <row r="26" spans="1:24" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="53" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
     </row>
     <row r="27" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="V27" s="54"/>
+      <c r="J27" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="42"/>
       <c r="W27" s="3" t="s">
         <v>41</v>
       </c>
@@ -13732,127 +13727,127 @@
       <c r="W29" s="27"/>
     </row>
     <row r="30" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44">
-        <v>0</v>
-      </c>
-      <c r="H30" s="45"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67">
+        <v>0</v>
+      </c>
+      <c r="H30" s="68"/>
       <c r="I30" s="32" t="str">
         <f>I32</f>
         <v>{{ summa }}</v>
       </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="65"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="64"/>
       <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="71" t="s">
         <v>3925</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="33">
         <v>1</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="47"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="73"/>
       <c r="W31" s="30"/>
     </row>
     <row r="32" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="71" t="s">
         <v>3926</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44">
-        <v>0</v>
-      </c>
-      <c r="H32" s="45"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67">
+        <v>0</v>
+      </c>
+      <c r="H32" s="68"/>
       <c r="I32" s="34" t="s">
         <v>3927</v>
       </c>
-      <c r="J32" s="69"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="47"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="73"/>
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
       <c r="X33"/>
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="21" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -13881,14 +13876,14 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:24" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -13968,7 +13963,7 @@
     <row r="41" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="14" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -13980,14 +13975,14 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:24" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="6"/>
@@ -14051,7 +14046,7 @@
     <row r="46" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="14" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -14067,7 +14062,7 @@
     <row r="47" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="39" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="24"/>
@@ -14079,14 +14074,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="24" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="P47" s="24"/>
     </row>
     <row r="48" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="6"/>
@@ -14118,7 +14113,7 @@
     <row r="50" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="6"/>
@@ -14149,7 +14144,7 @@
     <row r="52" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="6"/>
@@ -14165,7 +14160,7 @@
     <row r="53" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="20" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="6"/>
@@ -14181,7 +14176,7 @@
     <row r="54" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="20" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="6"/>
@@ -14193,7 +14188,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="P54" s="11"/>
     </row>
@@ -14240,38 +14235,46 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="Q11:X11"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="Q12:X12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:X13"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="Q17:X17"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:X7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="M3:X3"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A22:W22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="Q5:X5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:F27"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="Q8:X8"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:X1"/>
     <mergeCell ref="A2:L2"/>
@@ -14296,54 +14299,46 @@
     <mergeCell ref="R25:T26"/>
     <mergeCell ref="U25:W26"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:F27"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="Q8:X8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M3:X3"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A22:W22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="Q6:X6"/>
-    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:X7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="Q12:X12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="Q17:X17"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
   </mergeCells>
   <pageMargins left="0.78740157479999995" right="0.39370078739999997" top="0.39370078739999997" bottom="0.39370078739999997" header="7.8740157480000003E-2" footer="7.8740157480000003E-2"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="150" orientation="landscape" r:id="rId1"/>
